--- a/ペット誤飲チェッカー要件定義書.xlsx
+++ b/ペット誤飲チェッカー要件定義書.xlsx
@@ -11,14 +11,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="tlOOtlVak49quwqvQLhV8C14fTmSdcONt4gyXr1MI9E="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="GZ3Mj2a8L7tE5yVIaDN/s5+55y0NzcGNvTU31oXuyTc="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="87">
   <si>
     <t>ペット誤飲チェッカー要件定義書</t>
   </si>
@@ -29,7 +29,19 @@
     <t>定義書作成日：2024/01/31</t>
   </si>
   <si>
-    <t>最終更新日：2024/02/06</t>
+    <t>最終更新日：2024/02/07</t>
+  </si>
+  <si>
+    <t>◆作成期日</t>
+  </si>
+  <si>
+    <t>2024年2月27日リリース</t>
+  </si>
+  <si>
+    <t>2024年2月28日プレゼンテーション</t>
+  </si>
+  <si>
+    <t>◆要件</t>
   </si>
   <si>
     <t>目的：Webアプリケーション「ペット誤飲チェッカー（仮）」の開発</t>
@@ -44,6 +56,15 @@
     <t>ターゲット：ペットを飼っている人（主に大人）</t>
   </si>
   <si>
+    <t>開発環境：Windows10,Eclipce2022,H2データベース</t>
+  </si>
+  <si>
+    <t>使用言語：Java,HTML,CSS</t>
+  </si>
+  <si>
+    <t>◆アプリケーションの機能について</t>
+  </si>
+  <si>
     <t>①ログイン機能</t>
   </si>
   <si>
@@ -95,16 +116,7 @@
     <t>・誤飲後の主な症状と対応策を表示する。（例：水を飲ませる、異物を吐かせる、動物病院に行く等）</t>
   </si>
   <si>
-    <t>④作成期日</t>
-  </si>
-  <si>
-    <t>2024年2月27日までにリリース</t>
-  </si>
-  <si>
-    <t>2024年2月28日に発表</t>
-  </si>
-  <si>
-    <t>⑤リリース後の追加予定機能</t>
+    <t>⑤リリース後の改善予定</t>
   </si>
   <si>
     <t>・現状は個人のパソコンでのみ閲覧可能だが、スマートフォンでの閲覧を可能にする。</t>
@@ -116,6 +128,24 @@
     <t>・現状は犬への影響のみだが、登録された動物の種類や年齢に合わせて検索結果を変更する。</t>
   </si>
   <si>
+    <t>・コードの改善</t>
+  </si>
+  <si>
+    <t>→セキュリティ対策の強化</t>
+  </si>
+  <si>
+    <t>→エラーハンドリングの改善</t>
+  </si>
+  <si>
+    <t>→データベースの正規化と最適化</t>
+  </si>
+  <si>
+    <t>→コードの分割と整理</t>
+  </si>
+  <si>
+    <t>→入力検証の強化</t>
+  </si>
+  <si>
     <t>[クラス設計]</t>
   </si>
   <si>
@@ -137,6 +167,9 @@
     <t>・SignUpResultServlet</t>
   </si>
   <si>
+    <t>・CheckerServlet.java</t>
+  </si>
+  <si>
     <t>【DAO】</t>
   </si>
   <si>
@@ -176,16 +209,13 @@
     <t>loginOK.jsp</t>
   </si>
   <si>
-    <t>loginNG.jsp</t>
-  </si>
-  <si>
-    <t>logout.jsp</t>
-  </si>
-  <si>
-    <t>main.jsp</t>
-  </si>
-  <si>
-    <t>checker.jsp</t>
+    <t>checkResultGreen.jsp</t>
+  </si>
+  <si>
+    <t>checkResultYellow.jsp</t>
+  </si>
+  <si>
+    <t>checkResultRed.jsp</t>
   </si>
   <si>
     <t>【DBテーブル設計】</t>
@@ -3496,283 +3526,327 @@
       <c r="A5" s="2"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="2"/>
+      <c r="A9" s="3"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1"/>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" ht="15.75" customHeight="1"/>
+      <c r="A15" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="A17" s="2"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="2" t="s">
-        <v>13</v>
+      <c r="A18" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="4" t="s">
-        <v>21</v>
+      <c r="A28" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
+      <c r="A29" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" customHeight="1"/>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="2" t="s">
-        <v>26</v>
+      <c r="A34" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1"/>
+      <c r="A35" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
+      <c r="A37" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" ht="15.75" customHeight="1"/>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="2" t="s">
-        <v>30</v>
+      <c r="A39" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41" ht="15.75" customHeight="1"/>
+      <c r="A40" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="2" t="s">
-        <v>32</v>
+      <c r="A42" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="2" t="s">
-        <v>33</v>
+      <c r="A43" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="2" t="s">
-        <v>34</v>
+      <c r="A44" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="2" t="s">
-        <v>35</v>
+      <c r="A45" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="2" t="s">
-        <v>36</v>
+      <c r="A46" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="A49" s="2"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="3" t="s">
-        <v>40</v>
+      <c r="A50" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="3" t="s">
-        <v>41</v>
+      <c r="A51" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="3" t="s">
-        <v>42</v>
+      <c r="A52" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="3" t="s">
-        <v>43</v>
+      <c r="A53" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="3" t="s">
-        <v>44</v>
+      <c r="A54" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="2" t="s">
-        <v>46</v>
+      <c r="A56" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="2" t="s">
-        <v>47</v>
+      <c r="A57" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="2" t="s">
-        <v>48</v>
+      <c r="A58" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="2" t="s">
-        <v>49</v>
+      <c r="A59" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="2" t="s">
-        <v>50</v>
+      <c r="A60" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="2" t="s">
-        <v>51</v>
+      <c r="A61" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="2" t="s">
-        <v>52</v>
+      <c r="A62" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="2" t="s">
-        <v>53</v>
+      <c r="A63" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="2" t="s">
-        <v>54</v>
+      <c r="A64" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="A66" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="A67" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="A68" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" ht="15.75" customHeight="1">
+      <c r="A69" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
+      <c r="A70" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="A71" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="A72" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="73" ht="15.75" customHeight="1">
+      <c r="A73" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
     <row r="74" ht="15.75" customHeight="1"/>
     <row r="75" ht="15.75" customHeight="1"/>
     <row r="76" ht="15.75" customHeight="1"/>
@@ -4711,6 +4785,12 @@
     <row r="1009" ht="15.75" customHeight="1"/>
     <row r="1010" ht="15.75" customHeight="1"/>
     <row r="1011" ht="15.75" customHeight="1"/>
+    <row r="1012" ht="15.75" customHeight="1"/>
+    <row r="1013" ht="15.75" customHeight="1"/>
+    <row r="1014" ht="15.75" customHeight="1"/>
+    <row r="1015" ht="15.75" customHeight="1"/>
+    <row r="1016" ht="15.75" customHeight="1"/>
+    <row r="1017" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -4739,7 +4819,7 @@
   <sheetData>
     <row r="1" ht="24.75" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
@@ -4747,91 +4827,91 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1"/>
